--- a/tests/resources/xlsx/accountBills copy.xlsx
+++ b/tests/resources/xlsx/accountBills copy.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2299C21A-7B50-4B8C-A57E-74E93D85868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA68413-14A1-4650-B99A-EEC1BCAB2C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -83,9 +83,6 @@
     <t>Transaction type</t>
   </si>
   <si>
-    <t>Prise</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -189,47 +189,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D210C99C-A905-4E41-A64D-F1CB2B864A2A}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -248,10 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,7 +535,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -601,19 +557,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -679,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
@@ -696,10 +652,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>